--- a/results/mp/deberta/corona/confidence/168/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-0.15/avg_0.004_scores.xlsx
@@ -103,13 +103,13 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>share</t>
@@ -951,25 +951,25 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L14">
         <v>156</v>
       </c>
       <c r="M14">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1133,25 +1133,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5304878048780488</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L21">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>186</v>
+        <v>27</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>154</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1159,25 +1159,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5294117647058824</v>
+        <v>0.515625</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1185,25 +1185,25 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.515625</v>
+        <v>0.5117647058823529</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="10:17">
